--- a/misc/statistics.xlsx
+++ b/misc/statistics.xlsx
@@ -34,19 +34,19 @@
     <t xml:space="preserve">s</t>
   </si>
   <si>
-    <t xml:space="preserve">H0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">len_moy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CVl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t</t>
+    <t xml:space="preserve">orientation entropy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">length entropy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cv length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tortuosity</t>
   </si>
   <si>
     <t xml:space="preserve">N</t>
@@ -76,19 +76,19 @@
     <t xml:space="preserve">Theta</t>
   </si>
   <si>
-    <t xml:space="preserve">kmoy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CVk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPD</t>
+    <t xml:space="preserve">mean degree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cv degree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correlation vertex degree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aspl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpd</t>
   </si>
   <si>
     <t xml:space="preserve">AgenAllwedd</t>
@@ -533,7 +533,7 @@
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -542,7 +542,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="11.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
